--- a/data/trans_orig/iP16_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9198EE82-7053-49AE-BAB9-CDDBD9482B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2463217-F7AA-4BB0-A021-9B7D390BBD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA5D2699-379D-4A1C-8A6F-ED08A4490972}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D5C5440-86DF-47E5-A6C0-ABA84F42822E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="465">
   <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -107,1327 +107,1315 @@
     <t>10,09%</t>
   </si>
   <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>5,79%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>66,85%</t>
@@ -1436,16 +1424,16 @@
     <t>60,11%</t>
   </si>
   <si>
-    <t>73,9%</t>
+    <t>73,8%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BEFDCD-90B0-4127-B1CF-31717BEC4E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5F84E-FC4C-47B1-97D2-CE779C18751F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2792,10 +2780,10 @@
         <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -2804,13 +2792,13 @@
         <v>46467</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -2819,13 +2807,13 @@
         <v>97232</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2899,37 +2887,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,37 +2938,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2983,13 @@
         <v>1328</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3010,13 +2998,13 @@
         <v>1137</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3025,13 +3013,13 @@
         <v>2465</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3034,13 @@
         <v>12775</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3061,13 +3049,13 @@
         <v>5217</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -3076,13 +3064,13 @@
         <v>17992</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3085,13 @@
         <v>21163</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -3112,13 +3100,13 @@
         <v>16197</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3127,13 +3115,13 @@
         <v>37359</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,37 +3195,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3267,13 +3255,13 @@
         <v>517</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3282,13 +3270,13 @@
         <v>517</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3291,13 @@
         <v>4697</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -3318,13 +3306,13 @@
         <v>5813</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -3333,13 +3321,13 @@
         <v>10509</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3342,13 @@
         <v>52566</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H31" s="7">
         <v>61</v>
@@ -3369,13 +3357,13 @@
         <v>41607</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M31" s="7">
         <v>138</v>
@@ -3384,13 +3372,13 @@
         <v>94173</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3393,13 @@
         <v>86656</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H32" s="7">
         <v>118</v>
@@ -3420,13 +3408,13 @@
         <v>77368</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>249</v>
@@ -3435,13 +3423,13 @@
         <v>164024</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,7 +3485,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3517,7 +3505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE23011-5807-48DB-B402-0A6F8BC8D716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CCBE75-05AF-4D64-BF31-538A212493FB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3534,7 +3522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3919,37 +3907,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,37 +3958,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4003,13 @@
         <v>607</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4036,7 +4024,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4045,13 +4033,13 @@
         <v>607</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4054,13 @@
         <v>1207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4081,13 +4069,13 @@
         <v>5053</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4096,13 +4084,13 @@
         <v>6261</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4105,13 @@
         <v>16293</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -4132,13 +4120,13 @@
         <v>18008</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -4147,13 +4135,13 @@
         <v>34300</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,37 +4215,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,37 +4266,37 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -4338,13 +4326,13 @@
         <v>3714</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -4353,13 +4341,13 @@
         <v>3714</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4362,13 @@
         <v>14427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4389,13 +4377,13 @@
         <v>12870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4404,13 +4392,13 @@
         <v>27297</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4413,13 @@
         <v>86607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -4440,13 +4428,13 @@
         <v>71652</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>230</v>
@@ -4455,13 +4443,13 @@
         <v>158259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,7 +4505,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -4535,7 +4523,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4550,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4565,7 +4553,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4568,13 @@
         <v>1097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4601,7 +4589,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -4610,13 +4598,13 @@
         <v>1097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,7 +4625,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4652,7 +4640,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4667,7 +4655,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4670,13 @@
         <v>4505</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4697,13 +4685,13 @@
         <v>4833</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -4712,13 +4700,13 @@
         <v>9338</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4721,13 @@
         <v>33830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -4748,13 +4736,13 @@
         <v>31571</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -4763,13 +4751,13 @@
         <v>65400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4831,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4858,7 +4846,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4873,7 +4861,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4876,13 @@
         <v>1097</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4909,7 +4897,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4918,13 +4906,13 @@
         <v>1097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4927,13 @@
         <v>607</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -4954,13 +4942,13 @@
         <v>3714</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -4969,13 +4957,13 @@
         <v>4321</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4978,13 @@
         <v>20140</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -5005,13 +4993,13 @@
         <v>22757</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5020,13 +5008,13 @@
         <v>42896</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5029,13 @@
         <v>136730</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H32" s="7">
         <v>176</v>
@@ -5056,13 +5044,13 @@
         <v>121231</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M32" s="7">
         <v>369</v>
@@ -5071,13 +5059,13 @@
         <v>257959</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,7 +5121,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +5141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58404B87-AEED-4278-94FE-30FC071620A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827A90EE-64B4-417A-8ED8-CC2EBBE8ADD4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5170,7 +5158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5555,7 +5543,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5570,7 +5558,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5585,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,7 +5594,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5621,7 +5609,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5636,7 +5624,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5672,7 +5660,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5687,7 +5675,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5690,13 @@
         <v>1401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5717,13 +5705,13 @@
         <v>564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5732,13 +5720,13 @@
         <v>1965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,10 +5741,10 @@
         <v>7385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>14</v>
@@ -5768,10 +5756,10 @@
         <v>15127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>14</v>
@@ -5783,13 +5771,13 @@
         <v>22512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,7 +5881,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5932,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5947,13 @@
         <v>669</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -5974,13 +5962,13 @@
         <v>536</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -5989,13 +5977,13 @@
         <v>1205</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +5998,13 @@
         <v>12289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -6025,13 +6013,13 @@
         <v>10673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -6040,13 +6028,13 @@
         <v>22962</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6049,13 @@
         <v>72662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>109</v>
@@ -6076,13 +6064,13 @@
         <v>71770</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>215</v>
@@ -6091,13 +6079,13 @@
         <v>144432</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,7 +6141,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -6171,7 +6159,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6186,7 +6174,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6201,7 +6189,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,7 +6210,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6237,7 +6225,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6252,7 +6240,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6255,13 @@
         <v>713</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6288,7 +6276,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6297,13 +6285,13 @@
         <v>713</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6306,13 @@
         <v>1925</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6333,13 +6321,13 @@
         <v>4216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -6348,13 +6336,13 @@
         <v>6142</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6357,13 @@
         <v>26232</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -6384,13 +6372,13 @@
         <v>24576</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -6399,13 +6387,13 @@
         <v>50806</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,7 +6467,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6494,7 +6482,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6509,7 +6497,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,7 +6518,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6545,7 +6533,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6560,7 +6548,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6563,13 @@
         <v>1382</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>317</v>
+        <v>87</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6590,13 +6578,13 @@
         <v>536</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6605,13 +6593,13 @@
         <v>1918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6614,13 @@
         <v>15616</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -6641,13 +6629,13 @@
         <v>15454</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -6656,13 +6644,13 @@
         <v>31069</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6665,13 @@
         <v>106278</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H32" s="7">
         <v>167</v>
@@ -6692,13 +6680,13 @@
         <v>111472</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M32" s="7">
         <v>320</v>
@@ -6707,13 +6695,13 @@
         <v>217750</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,7 +6757,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -6789,7 +6777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B946FB1-081B-4DEF-9271-5EA2356B3D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458EDF4B-7655-4331-B99B-AF788586FB96}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6806,7 +6794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7191,7 +7179,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7206,7 +7194,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7221,7 +7209,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7224,13 @@
         <v>824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7257,7 +7245,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -7266,13 +7254,13 @@
         <v>824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7275,13 @@
         <v>888</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -7302,13 +7290,13 @@
         <v>1212</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7317,13 +7305,13 @@
         <v>2100</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,13 +7326,13 @@
         <v>3691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7353,13 +7341,13 @@
         <v>1105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7368,13 +7356,13 @@
         <v>4796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7377,13 @@
         <v>8963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -7404,13 +7392,13 @@
         <v>9499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -7419,13 +7407,13 @@
         <v>18461</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,7 +7487,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7514,7 +7502,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7529,7 +7517,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,7 +7538,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7559,13 +7547,13 @@
         <v>1600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7574,13 +7562,13 @@
         <v>1600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7583,13 @@
         <v>4043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -7610,13 +7598,13 @@
         <v>5350</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -7625,13 +7613,13 @@
         <v>9392</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7634,13 @@
         <v>36258</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -7661,13 +7649,13 @@
         <v>25527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>68</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -7676,13 +7664,13 @@
         <v>61785</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7685,13 @@
         <v>74116</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -7712,13 +7700,13 @@
         <v>68765</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -7727,13 +7715,13 @@
         <v>142881</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,7 +7777,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -7807,7 +7795,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7816,13 +7804,13 @@
         <v>575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7831,13 +7819,13 @@
         <v>575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,7 +7846,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7867,13 +7855,13 @@
         <v>833</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -7882,13 +7870,13 @@
         <v>1491</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>403</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7891,13 @@
         <v>3789</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7918,13 +7906,13 @@
         <v>1927</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -7933,13 +7921,13 @@
         <v>5716</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7942,13 @@
         <v>8744</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -7969,13 +7957,13 @@
         <v>13058</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -7984,13 +7972,13 @@
         <v>21802</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7993,13 @@
         <v>30563</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -8020,13 +8008,13 @@
         <v>24962</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>80</v>
@@ -8035,13 +8023,13 @@
         <v>55525</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,7 +8103,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8124,13 +8112,13 @@
         <v>575</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -8139,13 +8127,13 @@
         <v>575</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8148,13 @@
         <v>1483</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -8175,13 +8163,13 @@
         <v>2433</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>437</v>
+        <v>109</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -8190,13 +8178,13 @@
         <v>3915</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8199,13 @@
         <v>8720</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -8226,13 +8214,13 @@
         <v>8489</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>447</v>
+        <v>323</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -8241,13 +8229,13 @@
         <v>17209</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8250,13 @@
         <v>48693</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -8277,13 +8265,13 @@
         <v>39690</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M31" s="7">
         <v>140</v>
@@ -8292,13 +8280,13 @@
         <v>88382</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8301,13 @@
         <v>113642</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H32" s="7">
         <v>144</v>
@@ -8328,13 +8316,13 @@
         <v>103225</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M32" s="7">
         <v>304</v>
@@ -8343,13 +8331,13 @@
         <v>216866</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,7 +8393,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP16_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP16_n_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2463217-F7AA-4BB0-A021-9B7D390BBD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80CEEA9D-FF70-4C3E-BD6A-1C7752998B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D5C5440-86DF-47E5-A6C0-ABA84F42822E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FB5EBD22-29F6-402F-BEA6-DCAB31AE603B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="461">
   <si>
     <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,1363 +77,1351 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2012 (Tasa respuesta: 20,77%)</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>Menores según el número de medicamentos consumidos en las últimas 2 semanas en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
 </sst>
 </file>
@@ -1845,8 +1833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5F84E-FC4C-47B1-97D2-CE779C18751F}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFB4732-2B18-4F22-B525-B9A8766587FE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1980,12 +1968,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2003,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,12 +2019,14 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -2052,7 +2044,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,32 +2068,34 @@
         <v>12</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2044</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,47 +2104,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>7342</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4213</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>11555</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,47 +2155,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>726</v>
+        <v>14706</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I8" s="7">
+        <v>14001</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>726</v>
+        <v>28706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,52 +2206,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I9" s="7">
+        <v>20258</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N9" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -2271,7 +2271,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,19 +2310,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,49 +2361,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>2044</v>
+        <v>4675</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1325</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>2044</v>
+        <v>6001</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,49 +2412,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>4213</v>
+        <v>29048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>7342</v>
+        <v>35578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="N13" s="7">
-        <v>11555</v>
+        <v>64626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,49 +2463,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
-        <v>14001</v>
+        <v>46467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I14" s="7">
-        <v>14706</v>
+        <v>50765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="N14" s="7">
-        <v>28706</v>
+        <v>97232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,54 +2514,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I15" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N15" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2579,7 +2579,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,37 +2630,37 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,46 +2672,46 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1325</v>
+        <v>1137</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>4675</v>
+        <v>1328</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>6001</v>
+        <v>2465</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,49 +2720,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>35578</v>
+        <v>5217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>29048</v>
+        <v>12775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>64626</v>
+        <v>17992</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,49 +2771,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7">
-        <v>50765</v>
+        <v>16197</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I20" s="7">
-        <v>46467</v>
+        <v>21163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="N20" s="7">
-        <v>97232</v>
+        <v>37359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,54 +2822,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D21" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H21" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I21" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M21" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N21" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2887,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,19 +2926,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2977,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>1328</v>
+        <v>5813</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>1137</v>
+        <v>4697</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N24" s="7">
-        <v>2465</v>
+        <v>10509</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,49 +3028,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7">
-        <v>12775</v>
+        <v>41607</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I25" s="7">
-        <v>5217</v>
+        <v>52567</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="N25" s="7">
-        <v>17992</v>
+        <v>94174</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,49 +3079,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D26" s="7">
-        <v>21163</v>
+        <v>77368</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I26" s="7">
-        <v>16197</v>
+        <v>85930</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="N26" s="7">
-        <v>37359</v>
+        <v>163298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,369 +3130,60 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D27" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I27" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N27" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>517</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>517</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
-        <v>7</v>
-      </c>
-      <c r="D30" s="7">
-        <v>4697</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="7">
-        <v>10</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5813</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M30" s="7">
-        <v>17</v>
-      </c>
-      <c r="N30" s="7">
-        <v>10509</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5">
-        <v>2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>77</v>
-      </c>
-      <c r="D31" s="7">
-        <v>52566</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="7">
-        <v>61</v>
-      </c>
-      <c r="I31" s="7">
-        <v>41607</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M31" s="7">
-        <v>138</v>
-      </c>
-      <c r="N31" s="7">
-        <v>94173</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>131</v>
-      </c>
-      <c r="D32" s="7">
-        <v>86656</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="7">
-        <v>118</v>
-      </c>
-      <c r="I32" s="7">
-        <v>77368</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M32" s="7">
-        <v>249</v>
-      </c>
-      <c r="N32" s="7">
-        <v>164024</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>215</v>
-      </c>
-      <c r="D33" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="7">
-        <v>190</v>
-      </c>
-      <c r="I33" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="7">
-        <v>405</v>
-      </c>
-      <c r="N33" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>140</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3505,8 +3196,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CCBE75-05AF-4D64-BF31-538A212493FB}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F71B6A-503C-4D24-976A-A1C91EF74402}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3522,7 +3213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3625,41 +3316,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,41 +3367,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,41 +3418,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>607</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>607</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,43 +3467,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5053</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1207</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6261</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,43 +3518,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18008</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I8" s="7">
+        <v>16293</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N8" s="7">
+        <v>34300</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,48 +3569,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>23061</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I9" s="7">
+        <v>18107</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="N9" s="7">
+        <v>41168</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -3907,7 +3634,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3922,7 +3649,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3937,7 +3664,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,7 +3685,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3973,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3988,7 +3715,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,19 +3724,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>607</v>
+        <v>3714</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4024,22 +3751,22 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>607</v>
+        <v>3714</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,49 +3775,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>1207</v>
+        <v>12870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>5053</v>
+        <v>14427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>6261</v>
+        <v>27297</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,49 +3826,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>16293</v>
+        <v>71652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I14" s="7">
-        <v>18008</v>
+        <v>86607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="N14" s="7">
-        <v>34300</v>
+        <v>158259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,54 +3877,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>18107</v>
+        <v>88236</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I15" s="7">
-        <v>23061</v>
+        <v>101034</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="N15" s="7">
-        <v>41168</v>
+        <v>189270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -4215,7 +3942,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4230,7 +3957,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4245,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,37 +3993,37 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,37 +4044,37 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>3714</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>3714</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,49 +4083,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>14427</v>
+        <v>4833</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>12870</v>
+        <v>4505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>27297</v>
+        <v>9338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,49 +4134,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7">
-        <v>86607</v>
+        <v>31571</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>71652</v>
+        <v>33830</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="N20" s="7">
-        <v>158259</v>
+        <v>65400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,54 +4185,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D21" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H21" s="7">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I21" s="7">
-        <v>88236</v>
+        <v>39433</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M21" s="7">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="N21" s="7">
-        <v>189270</v>
+        <v>75836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -4523,7 +4250,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4538,7 +4265,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4553,7 +4280,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,34 +4289,34 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>1097</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -4598,13 +4325,13 @@
         <v>1097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,49 +4340,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>3714</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>4321</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4391,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>4505</v>
+        <v>22757</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="H25" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>4833</v>
+        <v>20140</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="M25" s="7">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="N25" s="7">
-        <v>9338</v>
+        <v>42896</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,49 +4442,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="D26" s="7">
-        <v>33830</v>
+        <v>121231</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="I26" s="7">
-        <v>31571</v>
+        <v>136730</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="N26" s="7">
-        <v>65400</v>
+        <v>257959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,369 +4493,60 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="D27" s="7">
-        <v>39433</v>
+        <v>147701</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="I27" s="7">
-        <v>36404</v>
+        <v>158574</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>105</v>
+        <v>436</v>
       </c>
       <c r="N27" s="7">
-        <v>75836</v>
+        <v>306274</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1097</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1097</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>607</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" s="7">
-        <v>5</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3714</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M30" s="7">
-        <v>6</v>
-      </c>
-      <c r="N30" s="7">
-        <v>4321</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5">
-        <v>2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>28</v>
-      </c>
-      <c r="D31" s="7">
-        <v>20140</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H31" s="7">
-        <v>32</v>
-      </c>
-      <c r="I31" s="7">
-        <v>22757</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M31" s="7">
-        <v>60</v>
-      </c>
-      <c r="N31" s="7">
-        <v>42896</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>193</v>
-      </c>
-      <c r="D32" s="7">
-        <v>136730</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H32" s="7">
-        <v>176</v>
-      </c>
-      <c r="I32" s="7">
-        <v>121231</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M32" s="7">
-        <v>369</v>
-      </c>
-      <c r="N32" s="7">
-        <v>257959</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>223</v>
-      </c>
-      <c r="D33" s="7">
-        <v>158574</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="7">
-        <v>213</v>
-      </c>
-      <c r="I33" s="7">
-        <v>147701</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="7">
-        <v>436</v>
-      </c>
-      <c r="N33" s="7">
-        <v>306274</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>140</v>
+      <c r="A28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5141,8 +4559,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827A90EE-64B4-417A-8ED8-CC2EBBE8ADD4}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E135BB-EDEA-46DA-8A7B-D1A496C0D790}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5158,7 +4576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5261,41 +4679,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,41 +4730,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,41 +4781,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,43 +4830,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>564</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1401</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1965</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,43 +4881,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>15127</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7385</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N8" s="7">
+        <v>22512</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,48 +4932,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15691</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8786</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N9" s="7">
+        <v>24477</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -5543,7 +4997,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5558,7 +5012,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5573,7 +5027,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,7 +5048,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5609,7 +5063,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5624,7 +5078,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,49 +5087,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,49 +5138,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>1401</v>
+        <v>10673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>564</v>
+        <v>12289</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>1965</v>
+        <v>22962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,49 +5189,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>7385</v>
+        <v>71770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="I14" s="7">
-        <v>15127</v>
+        <v>72662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="N14" s="7">
-        <v>22512</v>
+        <v>144432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,54 +5240,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D15" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I15" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -5851,7 +5305,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5866,7 +5320,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5881,7 +5335,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +5356,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5917,7 +5371,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5932,7 +5386,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,49 +5395,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>536</v>
+        <v>713</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>1205</v>
+        <v>713</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,49 +5446,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>12289</v>
+        <v>4216</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>10673</v>
+        <v>1925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>22962</v>
+        <v>6142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,49 +5497,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>72662</v>
+        <v>24576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>71770</v>
+        <v>26232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="N20" s="7">
-        <v>144432</v>
+        <v>50806</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,54 +5548,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H21" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I21" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N21" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -6159,7 +5613,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6174,7 +5628,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6189,7 +5643,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +5664,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6225,7 +5679,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6240,7 +5694,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,46 +5706,46 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>713</v>
+        <v>536</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>713</v>
+        <v>1918</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,49 +5754,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>1925</v>
+        <v>15454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>4216</v>
+        <v>15616</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="N25" s="7">
-        <v>6142</v>
+        <v>31069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,49 +5805,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="D26" s="7">
-        <v>26232</v>
+        <v>111472</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="I26" s="7">
-        <v>24576</v>
+        <v>106278</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="N26" s="7">
-        <v>50806</v>
+        <v>217750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,369 +5856,60 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D27" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I27" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N27" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1382</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>536</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1918</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5">
-        <v>2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>24</v>
-      </c>
-      <c r="D31" s="7">
-        <v>15616</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H31" s="7">
-        <v>24</v>
-      </c>
-      <c r="I31" s="7">
-        <v>15454</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M31" s="7">
-        <v>48</v>
-      </c>
-      <c r="N31" s="7">
-        <v>31069</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>153</v>
-      </c>
-      <c r="D32" s="7">
-        <v>106278</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H32" s="7">
-        <v>167</v>
-      </c>
-      <c r="I32" s="7">
-        <v>111472</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M32" s="7">
-        <v>320</v>
-      </c>
-      <c r="N32" s="7">
-        <v>217750</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>179</v>
-      </c>
-      <c r="D33" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="7">
-        <v>192</v>
-      </c>
-      <c r="I33" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="7">
-        <v>371</v>
-      </c>
-      <c r="N33" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>140</v>
+      <c r="A28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6777,8 +5922,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458EDF4B-7655-4331-B99B-AF788586FB96}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31D58BE-C7F9-4B6D-8604-C8A8F90F8237}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6794,7 +5939,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6897,41 +6042,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,41 +6093,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>863</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>863</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,43 +6142,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1206</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>937</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>345</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2144</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>346</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>347</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,43 +6193,49 @@
         <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1058</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3656</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4714</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,43 +6244,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>12965</v>
+      </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="7">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>10211</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="N8" s="7">
+        <v>23176</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,48 +6295,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15230</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="7">
+        <v>15667</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N9" s="7">
+        <v>30897</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -7179,7 +6360,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7194,7 +6375,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7209,7 +6390,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,19 +6399,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>824</v>
+        <v>1606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7245,22 +6426,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>824</v>
+        <v>1606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,49 +6450,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>888</v>
+        <v>5208</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>10</v>
+        <v>372</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>1212</v>
+        <v>4117</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>2100</v>
+        <v>9325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,49 +6501,49 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>3691</v>
+        <v>25385</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7">
-        <v>1105</v>
+        <v>37673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>10</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="N13" s="7">
-        <v>4796</v>
+        <v>63058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,49 +6552,49 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7">
-        <v>8963</v>
+        <v>88644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>9499</v>
+        <v>78234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="N14" s="7">
-        <v>18461</v>
+        <v>166878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,72 +6603,72 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D15" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I15" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N15" s="7">
-        <v>26182</v>
+        <v>240867</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7502,22 +6683,22 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,49 +6707,49 @@
         <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1600</v>
+        <v>698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1600</v>
+        <v>1518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,49 +6758,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>4043</v>
+        <v>1891</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>5350</v>
+        <v>4081</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="M18" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>9392</v>
+        <v>5971</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,49 +6809,49 @@
         <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>36258</v>
+        <v>12904</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>25527</v>
+        <v>9180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="N19" s="7">
-        <v>61785</v>
+        <v>22084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,49 +6860,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>74116</v>
+        <v>25443</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I20" s="7">
-        <v>68765</v>
+        <v>32552</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>142881</v>
+        <v>57995</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,102 +6911,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>114417</v>
+        <v>41642</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H21" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I21" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M21" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N21" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,49 +7015,49 @@
         <v>4</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>658</v>
+        <v>2425</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>833</v>
+        <v>1561</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>401</v>
+        <v>213</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>1491</v>
+        <v>3986</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,49 +7066,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>3789</v>
+        <v>8305</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>1927</v>
+        <v>9135</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>5716</v>
+        <v>17441</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,49 +7117,49 @@
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7">
-        <v>8744</v>
+        <v>39347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7">
-        <v>13058</v>
+        <v>50508</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="N25" s="7">
-        <v>21802</v>
+        <v>89856</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,49 +7168,49 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D26" s="7">
-        <v>30563</v>
+        <v>127052</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I26" s="7">
-        <v>24962</v>
+        <v>120997</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="N26" s="7">
-        <v>55525</v>
+        <v>248048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,369 +7219,60 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D27" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I27" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N27" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>575</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
-      <c r="N28" s="7">
-        <v>575</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1483</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2433</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M29" s="7">
-        <v>5</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3915</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7">
-        <v>8720</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H30" s="7">
-        <v>13</v>
-      </c>
-      <c r="I30" s="7">
-        <v>8489</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M30" s="7">
-        <v>26</v>
-      </c>
-      <c r="N30" s="7">
-        <v>17209</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5">
-        <v>2</v>
-      </c>
-      <c r="C31" s="7">
-        <v>75</v>
-      </c>
-      <c r="D31" s="7">
-        <v>48693</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H31" s="7">
-        <v>65</v>
-      </c>
-      <c r="I31" s="7">
-        <v>39690</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="M31" s="7">
-        <v>140</v>
-      </c>
-      <c r="N31" s="7">
-        <v>88382</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>160</v>
-      </c>
-      <c r="D32" s="7">
-        <v>113642</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H32" s="7">
-        <v>144</v>
-      </c>
-      <c r="I32" s="7">
-        <v>103225</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="M32" s="7">
-        <v>304</v>
-      </c>
-      <c r="N32" s="7">
-        <v>216866</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>250</v>
-      </c>
-      <c r="D33" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="7">
-        <v>226</v>
-      </c>
-      <c r="I33" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="7">
-        <v>476</v>
-      </c>
-      <c r="N33" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>140</v>
+      <c r="A28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
